--- a/data/pca/factorExposure/factorExposure_2009-09-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-09-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01722414238163581</v>
+        <v>0.01664848266286408</v>
       </c>
       <c r="C2">
-        <v>-0.001600695516270721</v>
+        <v>0.0008560900518453276</v>
       </c>
       <c r="D2">
-        <v>-0.0001784829128222917</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.008939170544277581</v>
+      </c>
+      <c r="E2">
+        <v>0.001675635285110673</v>
+      </c>
+      <c r="F2">
+        <v>-0.01240926146416149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09746190115282605</v>
+        <v>0.09384787656317184</v>
       </c>
       <c r="C4">
-        <v>-0.02152929325036156</v>
+        <v>0.01445381793115454</v>
       </c>
       <c r="D4">
-        <v>0.06632477955514057</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08408256558784903</v>
+      </c>
+      <c r="E4">
+        <v>0.02865659069003367</v>
+      </c>
+      <c r="F4">
+        <v>0.03245025824907709</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1449580077079572</v>
+        <v>0.1589789934270824</v>
       </c>
       <c r="C6">
-        <v>-0.02629527232985076</v>
+        <v>0.02655446527161031</v>
       </c>
       <c r="D6">
-        <v>-0.01978241458742287</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02335719996221311</v>
+      </c>
+      <c r="E6">
+        <v>0.01081892240475159</v>
+      </c>
+      <c r="F6">
+        <v>0.04327888928901497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06621685557152143</v>
+        <v>0.06357066823717197</v>
       </c>
       <c r="C7">
-        <v>-0.003787224178352491</v>
+        <v>-0.001663830516371768</v>
       </c>
       <c r="D7">
-        <v>0.03582693064350225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05248917599783288</v>
+      </c>
+      <c r="E7">
+        <v>0.01213641114591545</v>
+      </c>
+      <c r="F7">
+        <v>0.04748069009056499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06509688113485614</v>
+        <v>0.05755570581642844</v>
       </c>
       <c r="C8">
-        <v>0.009945913886860952</v>
+        <v>-0.01328200386689484</v>
       </c>
       <c r="D8">
-        <v>0.01667892784808494</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03232309036843556</v>
+      </c>
+      <c r="E8">
+        <v>0.01796468535712315</v>
+      </c>
+      <c r="F8">
+        <v>-0.02677721222158888</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07699311410701717</v>
+        <v>0.07084514473217278</v>
       </c>
       <c r="C9">
-        <v>-0.0181328163680371</v>
+        <v>0.0102075864611984</v>
       </c>
       <c r="D9">
-        <v>0.06622474949041436</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08694172419662534</v>
+      </c>
+      <c r="E9">
+        <v>0.02324155171408768</v>
+      </c>
+      <c r="F9">
+        <v>0.048009043416811</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08416835598719329</v>
+        <v>0.09159879370832502</v>
       </c>
       <c r="C10">
-        <v>-0.009011646445931481</v>
+        <v>0.02101321996073098</v>
       </c>
       <c r="D10">
-        <v>-0.1710038223235741</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1643123439096882</v>
+      </c>
+      <c r="E10">
+        <v>-0.03281115096081481</v>
+      </c>
+      <c r="F10">
+        <v>-0.05486572514984537</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09403903369499718</v>
+        <v>0.08804130031461964</v>
       </c>
       <c r="C11">
-        <v>-0.01850923957249153</v>
+        <v>0.01028366567329999</v>
       </c>
       <c r="D11">
-        <v>0.09814768129186008</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1170812740183595</v>
+      </c>
+      <c r="E11">
+        <v>0.04569159160868612</v>
+      </c>
+      <c r="F11">
+        <v>0.02308739399470272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.1011679486925514</v>
+        <v>0.09195140114942611</v>
       </c>
       <c r="C12">
-        <v>-0.01689387747223857</v>
+        <v>0.007652740385979479</v>
       </c>
       <c r="D12">
-        <v>0.09736920422123335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1321310151263274</v>
+      </c>
+      <c r="E12">
+        <v>0.04576781252796392</v>
+      </c>
+      <c r="F12">
+        <v>0.02945174276689812</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04325509124738678</v>
+        <v>0.04135208441862509</v>
       </c>
       <c r="C13">
-        <v>-0.006434372444177309</v>
+        <v>0.002354075053649133</v>
       </c>
       <c r="D13">
-        <v>0.03308400186324709</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05324596488213299</v>
+      </c>
+      <c r="E13">
+        <v>-0.004734439150052296</v>
+      </c>
+      <c r="F13">
+        <v>0.002581290968453063</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02236694440867007</v>
+        <v>0.02394108710426049</v>
       </c>
       <c r="C14">
-        <v>-0.01547239689617397</v>
+        <v>0.01378178607197751</v>
       </c>
       <c r="D14">
-        <v>0.02433548845882564</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03283970186961309</v>
+      </c>
+      <c r="E14">
+        <v>0.01836565450802476</v>
+      </c>
+      <c r="F14">
+        <v>0.01388239464605219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03612995595847233</v>
+        <v>0.0329319689954153</v>
       </c>
       <c r="C15">
-        <v>-0.008229197189019301</v>
+        <v>0.004643697089875652</v>
       </c>
       <c r="D15">
-        <v>0.02473644366594322</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04505983785327599</v>
+      </c>
+      <c r="E15">
+        <v>0.006008660871983312</v>
+      </c>
+      <c r="F15">
+        <v>0.02489298185169405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.08167116418307292</v>
+        <v>0.07413728384424563</v>
       </c>
       <c r="C16">
-        <v>-0.009751540980179994</v>
+        <v>0.0008392408058683972</v>
       </c>
       <c r="D16">
-        <v>0.09969520361042244</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1274824735247092</v>
+      </c>
+      <c r="E16">
+        <v>0.06016123905005764</v>
+      </c>
+      <c r="F16">
+        <v>0.02730549606389823</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0006982680218029271</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0001672324910792421</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001185668380824201</v>
+      </c>
+      <c r="E17">
+        <v>0.000623201229116888</v>
+      </c>
+      <c r="F17">
+        <v>-0.001205740519117862</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.006815723558862698</v>
+        <v>0.03625023415364989</v>
       </c>
       <c r="C18">
-        <v>0.001311343717574809</v>
+        <v>-0.003001260110757489</v>
       </c>
       <c r="D18">
-        <v>0.009713064819777829</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01623518684862325</v>
+      </c>
+      <c r="E18">
+        <v>-0.008393719753563919</v>
+      </c>
+      <c r="F18">
+        <v>-0.009487417932784207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06325040522962865</v>
+        <v>0.06172963130426391</v>
       </c>
       <c r="C20">
-        <v>-0.007466408656290539</v>
+        <v>-3.282090137007227e-05</v>
       </c>
       <c r="D20">
-        <v>0.04639298457862916</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07837744890011022</v>
+      </c>
+      <c r="E20">
+        <v>0.0560329269578303</v>
+      </c>
+      <c r="F20">
+        <v>0.0263015450506347</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04340176991720244</v>
+        <v>0.04064539939405681</v>
       </c>
       <c r="C21">
-        <v>-0.01070292228988567</v>
+        <v>0.006376653292640771</v>
       </c>
       <c r="D21">
-        <v>0.01311094381671869</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03804776726334295</v>
+      </c>
+      <c r="E21">
+        <v>-0.001680953458059886</v>
+      </c>
+      <c r="F21">
+        <v>-0.02398408015911292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04142696819331305</v>
+        <v>0.04271138169738398</v>
       </c>
       <c r="C22">
-        <v>-0.0002360837199761072</v>
+        <v>0.0001019765520570372</v>
       </c>
       <c r="D22">
-        <v>-0.01103696539905881</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.006323195149272774</v>
+      </c>
+      <c r="E22">
+        <v>0.03856367082729365</v>
+      </c>
+      <c r="F22">
+        <v>-0.03705660640481957</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.0413887272521407</v>
+        <v>0.04268710462206402</v>
       </c>
       <c r="C23">
-        <v>-0.00022698728014972</v>
+        <v>9.346808681474328e-05</v>
       </c>
       <c r="D23">
-        <v>-0.01101247743034641</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.006338786556270813</v>
+      </c>
+      <c r="E23">
+        <v>0.03874725857462408</v>
+      </c>
+      <c r="F23">
+        <v>-0.037019118522781</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08459115924482981</v>
+        <v>0.07990253040254505</v>
       </c>
       <c r="C24">
-        <v>-0.01015622418555254</v>
+        <v>0.001509496858387994</v>
       </c>
       <c r="D24">
-        <v>0.1052296048830796</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1207571912107008</v>
+      </c>
+      <c r="E24">
+        <v>0.0484637090364715</v>
+      </c>
+      <c r="F24">
+        <v>0.0279975139948102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.09155370654666897</v>
+        <v>0.08524924816865524</v>
       </c>
       <c r="C25">
-        <v>-0.01229534375979001</v>
+        <v>0.004256777470910236</v>
       </c>
       <c r="D25">
-        <v>0.0885777733335136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1095644815441721</v>
+      </c>
+      <c r="E25">
+        <v>0.03172681415252877</v>
+      </c>
+      <c r="F25">
+        <v>0.02775465639453071</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05891107190118402</v>
+        <v>0.05891846729394093</v>
       </c>
       <c r="C26">
-        <v>-0.01862133996697429</v>
+        <v>0.01437064954362785</v>
       </c>
       <c r="D26">
-        <v>0.01267341418291684</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04110352568830997</v>
+      </c>
+      <c r="E26">
+        <v>0.02822894121707438</v>
+      </c>
+      <c r="F26">
+        <v>-0.007157528120806327</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1317715256067553</v>
+        <v>0.1424797521049768</v>
       </c>
       <c r="C28">
-        <v>-0.005435606693134637</v>
+        <v>0.02242376823692798</v>
       </c>
       <c r="D28">
-        <v>-0.2795873608131073</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2609948260088004</v>
+      </c>
+      <c r="E28">
+        <v>-0.06730358642207571</v>
+      </c>
+      <c r="F28">
+        <v>0.007828612424093868</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02757250866474741</v>
+        <v>0.0285555973508137</v>
       </c>
       <c r="C29">
-        <v>-0.01018018670967811</v>
+        <v>0.008669252874536678</v>
       </c>
       <c r="D29">
-        <v>0.01926926681925695</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03118617751659318</v>
+      </c>
+      <c r="E29">
+        <v>0.01356809930565634</v>
+      </c>
+      <c r="F29">
+        <v>-0.01290161243386458</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.0707099380088631</v>
+        <v>0.05849613718178061</v>
       </c>
       <c r="C30">
-        <v>-0.01030206227991248</v>
+        <v>0.002411877818860409</v>
       </c>
       <c r="D30">
-        <v>0.07210925761216537</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08953007341046461</v>
+      </c>
+      <c r="E30">
+        <v>0.01541075224351617</v>
+      </c>
+      <c r="F30">
+        <v>0.07772877961881774</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05168937366481149</v>
+        <v>0.05099067435584891</v>
       </c>
       <c r="C31">
-        <v>-0.01694179457304845</v>
+        <v>0.0154503782725766</v>
       </c>
       <c r="D31">
-        <v>0.02261621904447478</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02521424630505526</v>
+      </c>
+      <c r="E31">
+        <v>0.02876252313131705</v>
+      </c>
+      <c r="F31">
+        <v>-0.001179819923096452</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04502584298780879</v>
+        <v>0.05110120201047041</v>
       </c>
       <c r="C32">
-        <v>-0.002049022953345862</v>
+        <v>-0.001935763400112723</v>
       </c>
       <c r="D32">
-        <v>0.0203751620971725</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03653792076304058</v>
+      </c>
+      <c r="E32">
+        <v>0.0342821002110295</v>
+      </c>
+      <c r="F32">
+        <v>0.003559624666831625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09542166567389893</v>
+        <v>0.08853318947742919</v>
       </c>
       <c r="C33">
-        <v>-0.01488147039482857</v>
+        <v>0.006530629165747586</v>
       </c>
       <c r="D33">
-        <v>0.079397920421063</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1016167605360197</v>
+      </c>
+      <c r="E33">
+        <v>0.04288388011278502</v>
+      </c>
+      <c r="F33">
+        <v>0.0383043401038338</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07540875664303517</v>
+        <v>0.06781728156579708</v>
       </c>
       <c r="C34">
-        <v>-0.01680830482735767</v>
+        <v>0.009980363539677546</v>
       </c>
       <c r="D34">
-        <v>0.09050876004082721</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1097400758958213</v>
+      </c>
+      <c r="E34">
+        <v>0.03419995148983345</v>
+      </c>
+      <c r="F34">
+        <v>0.03402953437658379</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02355151764168326</v>
+        <v>0.02526695963934018</v>
       </c>
       <c r="C35">
-        <v>-0.002747019207405616</v>
+        <v>0.002534536068780802</v>
       </c>
       <c r="D35">
-        <v>0.003765692019539195</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01140545250021983</v>
+      </c>
+      <c r="E35">
+        <v>0.01185167933152863</v>
+      </c>
+      <c r="F35">
+        <v>0.001298684196444753</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02263656368177054</v>
+        <v>0.02753007445229704</v>
       </c>
       <c r="C36">
-        <v>-0.009004239863779268</v>
+        <v>0.006784225227612551</v>
       </c>
       <c r="D36">
-        <v>0.02984238758279406</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04005976681650279</v>
+      </c>
+      <c r="E36">
+        <v>0.01670722999333464</v>
+      </c>
+      <c r="F36">
+        <v>0.01578186710760739</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.0004771101928753595</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0005877420029839081</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002096211010386466</v>
+      </c>
+      <c r="E37">
+        <v>-0.001423014167270377</v>
+      </c>
+      <c r="F37">
+        <v>0.0001688059749764636</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0001041904981738205</v>
+        <v>0.0001455621640179233</v>
       </c>
       <c r="C38">
-        <v>-5.023870247482408e-05</v>
+        <v>6.227584364926781e-05</v>
       </c>
       <c r="D38">
-        <v>-0.001218400535210193</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0008937590400633366</v>
+      </c>
+      <c r="E38">
+        <v>-0.0008114570491666374</v>
+      </c>
+      <c r="F38">
+        <v>0.0001895016104970149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.119637435581129</v>
+        <v>0.1040151000457555</v>
       </c>
       <c r="C39">
-        <v>-0.02624729228861684</v>
+        <v>0.01538882227213752</v>
       </c>
       <c r="D39">
-        <v>0.1390588616502586</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1549001835883552</v>
+      </c>
+      <c r="E39">
+        <v>0.05916925778738456</v>
+      </c>
+      <c r="F39">
+        <v>0.03015130642664434</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03610603810955117</v>
+        <v>0.04123281786233522</v>
       </c>
       <c r="C40">
-        <v>-0.009959780324603207</v>
+        <v>0.007047682803328914</v>
       </c>
       <c r="D40">
-        <v>-0.005379981320697515</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.0315742616988034</v>
+      </c>
+      <c r="E40">
+        <v>0.002258474538075762</v>
+      </c>
+      <c r="F40">
+        <v>-0.01623481339661749</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02478316385926234</v>
+        <v>0.02784615731792345</v>
       </c>
       <c r="C41">
-        <v>-0.00768541235535336</v>
+        <v>0.006837496408459821</v>
       </c>
       <c r="D41">
-        <v>0.00689521800509785</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01100306150529169</v>
+      </c>
+      <c r="E41">
+        <v>0.01247783271794534</v>
+      </c>
+      <c r="F41">
+        <v>-0.005897267735811113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04034836488835306</v>
+        <v>0.04061585397059687</v>
       </c>
       <c r="C43">
-        <v>-0.00861018140946556</v>
+        <v>0.007021159736099099</v>
       </c>
       <c r="D43">
-        <v>0.00923007577625678</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01901967501789688</v>
+      </c>
+      <c r="E43">
+        <v>0.02531387614193329</v>
+      </c>
+      <c r="F43">
+        <v>-0.01227101163132048</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.08048201542447138</v>
+        <v>0.07911962559611663</v>
       </c>
       <c r="C44">
-        <v>-0.02818317045951631</v>
+        <v>0.01908186777217742</v>
       </c>
       <c r="D44">
-        <v>0.07257942943738581</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09767521070195789</v>
+      </c>
+      <c r="E44">
+        <v>0.06133141229213084</v>
+      </c>
+      <c r="F44">
+        <v>0.1570889671808721</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.01877444874409413</v>
+        <v>0.02311216664034429</v>
       </c>
       <c r="C46">
-        <v>-0.00401078422378754</v>
+        <v>0.003207214579364879</v>
       </c>
       <c r="D46">
-        <v>-0.001476520530461313</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.0135306911626266</v>
+      </c>
+      <c r="E46">
+        <v>0.02597029341636485</v>
+      </c>
+      <c r="F46">
+        <v>-0.005557187643877437</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05178639044715894</v>
+        <v>0.05271185412139343</v>
       </c>
       <c r="C47">
-        <v>-0.004595531336828167</v>
+        <v>0.003523253332462055</v>
       </c>
       <c r="D47">
-        <v>0.002114742880805809</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.0126908553970532</v>
+      </c>
+      <c r="E47">
+        <v>0.02428425203570896</v>
+      </c>
+      <c r="F47">
+        <v>-0.03183987467452469</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04646341645444</v>
+        <v>0.05037206422185547</v>
       </c>
       <c r="C48">
-        <v>-0.006276573153710358</v>
+        <v>0.002180962491309982</v>
       </c>
       <c r="D48">
-        <v>0.03532410573114064</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05037881953882768</v>
+      </c>
+      <c r="E48">
+        <v>-0.004774953054289537</v>
+      </c>
+      <c r="F48">
+        <v>0.01004717394705207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2022301952187831</v>
+        <v>0.2001499551633592</v>
       </c>
       <c r="C49">
-        <v>-0.01856038011594851</v>
+        <v>0.01887206752869895</v>
       </c>
       <c r="D49">
-        <v>-0.006683959294767202</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.006885596453553823</v>
+      </c>
+      <c r="E49">
+        <v>0.03007494516734904</v>
+      </c>
+      <c r="F49">
+        <v>0.03734075456642738</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.05129059877271591</v>
+        <v>0.05136891512196812</v>
       </c>
       <c r="C50">
-        <v>-0.01309328490021054</v>
+        <v>0.01118836898937334</v>
       </c>
       <c r="D50">
-        <v>0.02096388789345592</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0244538690732432</v>
+      </c>
+      <c r="E50">
+        <v>0.03003944270653424</v>
+      </c>
+      <c r="F50">
+        <v>0.009549897245674548</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1564741989098174</v>
+        <v>0.1486011540711639</v>
       </c>
       <c r="C52">
-        <v>-0.01881836391231419</v>
+        <v>0.01724447270095714</v>
       </c>
       <c r="D52">
-        <v>0.05791318063368841</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.0425791125516768</v>
+      </c>
+      <c r="E52">
+        <v>0.02100859690531557</v>
+      </c>
+      <c r="F52">
+        <v>0.04346518160756104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1709229438624988</v>
+        <v>0.1712444040786511</v>
       </c>
       <c r="C53">
-        <v>-0.01780022853864063</v>
+        <v>0.01977891499534761</v>
       </c>
       <c r="D53">
-        <v>0.02905484411795927</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005339109012345872</v>
+      </c>
+      <c r="E53">
+        <v>0.0291871385513153</v>
+      </c>
+      <c r="F53">
+        <v>0.07476412829921412</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.021228501164394</v>
+        <v>0.02041450630353371</v>
       </c>
       <c r="C54">
-        <v>-0.01295871481787283</v>
+        <v>0.01123228549858283</v>
       </c>
       <c r="D54">
-        <v>0.02303751952461281</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03450101550994286</v>
+      </c>
+      <c r="E54">
+        <v>0.02197931594592184</v>
+      </c>
+      <c r="F54">
+        <v>-0.005438024270460153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1165369689343883</v>
+        <v>0.1147342199484762</v>
       </c>
       <c r="C55">
-        <v>-0.01640647902012262</v>
+        <v>0.01747505863149095</v>
       </c>
       <c r="D55">
-        <v>0.02301871582278135</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.007346917285783385</v>
+      </c>
+      <c r="E55">
+        <v>0.02401443645425299</v>
+      </c>
+      <c r="F55">
+        <v>0.04767438429044805</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.17837444367963</v>
+        <v>0.1768088000134334</v>
       </c>
       <c r="C56">
-        <v>-0.01565819259769426</v>
+        <v>0.01757251386501182</v>
       </c>
       <c r="D56">
-        <v>0.01544361339939401</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.001600568769865805</v>
+      </c>
+      <c r="E56">
+        <v>0.03382627783607509</v>
+      </c>
+      <c r="F56">
+        <v>0.05245917760747517</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04518300344404048</v>
+        <v>0.04495555440168187</v>
       </c>
       <c r="C58">
-        <v>-0.00707087026196754</v>
+        <v>-0.0004464177313605471</v>
       </c>
       <c r="D58">
-        <v>0.04930824626596552</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07210373174870142</v>
+      </c>
+      <c r="E58">
+        <v>0.03249749287138047</v>
+      </c>
+      <c r="F58">
+        <v>-0.03884795488505056</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1646448840876081</v>
+        <v>0.1680682292178783</v>
       </c>
       <c r="C59">
-        <v>-0.007093360150659462</v>
+        <v>0.02261823597082113</v>
       </c>
       <c r="D59">
-        <v>-0.225717197488618</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2169464090216809</v>
+      </c>
+      <c r="E59">
+        <v>-0.04558176176076255</v>
+      </c>
+      <c r="F59">
+        <v>-0.03627417019749696</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2402588503974548</v>
+        <v>0.2318234751642141</v>
       </c>
       <c r="C60">
-        <v>0.0006828710562514846</v>
+        <v>-0.002245511249175089</v>
       </c>
       <c r="D60">
-        <v>0.05998607019929213</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04129419287388827</v>
+      </c>
+      <c r="E60">
+        <v>0.008560359864421784</v>
+      </c>
+      <c r="F60">
+        <v>-0.005371252066577012</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.09313404337875381</v>
+        <v>0.07997210756227127</v>
       </c>
       <c r="C61">
-        <v>-0.01895265885523478</v>
+        <v>0.01103359034183695</v>
       </c>
       <c r="D61">
-        <v>0.09791108452108589</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1180277298320008</v>
+      </c>
+      <c r="E61">
+        <v>0.03875394760033991</v>
+      </c>
+      <c r="F61">
+        <v>0.01397154387898888</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1725890861210047</v>
+        <v>0.1695695826482488</v>
       </c>
       <c r="C62">
-        <v>-0.01942614207439196</v>
+        <v>0.02065565925769404</v>
       </c>
       <c r="D62">
-        <v>0.0151878804809151</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005655154201647214</v>
+      </c>
+      <c r="E62">
+        <v>0.03369503477862542</v>
+      </c>
+      <c r="F62">
+        <v>0.03613722487137679</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04671903743309765</v>
+        <v>0.04553161840603216</v>
       </c>
       <c r="C63">
-        <v>-0.00673069544213901</v>
+        <v>0.001607073072558642</v>
       </c>
       <c r="D63">
-        <v>0.04225995041146254</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05937377964029799</v>
+      </c>
+      <c r="E63">
+        <v>0.02321163595385269</v>
+      </c>
+      <c r="F63">
+        <v>0.003527335715147352</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1071131049451895</v>
+        <v>0.1105472227076098</v>
       </c>
       <c r="C64">
-        <v>-0.01509832876319155</v>
+        <v>0.01138791948462782</v>
       </c>
       <c r="D64">
-        <v>0.02529308543761135</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04353677988528826</v>
+      </c>
+      <c r="E64">
+        <v>0.02255241390669158</v>
+      </c>
+      <c r="F64">
+        <v>0.024641915473603</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1375061593521409</v>
+        <v>0.1505718452895052</v>
       </c>
       <c r="C65">
-        <v>-0.03162907266402232</v>
+        <v>0.03405452460837834</v>
       </c>
       <c r="D65">
-        <v>-0.04208344318581142</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04377545537071358</v>
+      </c>
+      <c r="E65">
+        <v>0.006681784260880936</v>
+      </c>
+      <c r="F65">
+        <v>0.03809948247805348</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1454132801053948</v>
+        <v>0.1234268016822993</v>
       </c>
       <c r="C66">
-        <v>-0.02299275959274917</v>
+        <v>0.0132616581273955</v>
       </c>
       <c r="D66">
-        <v>0.1226509219747299</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1436105776043955</v>
+      </c>
+      <c r="E66">
+        <v>0.06533900997656346</v>
+      </c>
+      <c r="F66">
+        <v>0.03442530651687115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06162292524705501</v>
+        <v>0.05754937945488139</v>
       </c>
       <c r="C67">
-        <v>-0.006327300734164374</v>
+        <v>0.002811580723746074</v>
       </c>
       <c r="D67">
-        <v>0.05554538393019529</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.0556030513414703</v>
+      </c>
+      <c r="E67">
+        <v>0.01654456694586127</v>
+      </c>
+      <c r="F67">
+        <v>-0.0316219517306667</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1019040278793353</v>
+        <v>0.1167344364096164</v>
       </c>
       <c r="C68">
-        <v>-0.01540456106959311</v>
+        <v>0.03318479992540575</v>
       </c>
       <c r="D68">
-        <v>-0.2742621623322445</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2610800511873722</v>
+      </c>
+      <c r="E68">
+        <v>-0.08723265572353904</v>
+      </c>
+      <c r="F68">
+        <v>0.003085476762024021</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04158499742343134</v>
+        <v>0.03918180497570054</v>
       </c>
       <c r="C69">
-        <v>-0.000996306588454364</v>
+        <v>0.00116625519434854</v>
       </c>
       <c r="D69">
-        <v>0.01172154555293388</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008759738766031045</v>
+      </c>
+      <c r="E69">
+        <v>0.02444339913647534</v>
+      </c>
+      <c r="F69">
+        <v>0.0004845970894681218</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06535969032440764</v>
+        <v>0.06670439167520231</v>
       </c>
       <c r="C70">
-        <v>0.02345380625755698</v>
+        <v>-0.02747158929286666</v>
       </c>
       <c r="D70">
-        <v>-0.02535873781941811</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02443074326759747</v>
+      </c>
+      <c r="E70">
+        <v>-0.03268485283623621</v>
+      </c>
+      <c r="F70">
+        <v>-0.1872685584465636</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1191611851509318</v>
+        <v>0.1365028681690333</v>
       </c>
       <c r="C71">
-        <v>-0.01901967971745978</v>
+        <v>0.03749941973104725</v>
       </c>
       <c r="D71">
-        <v>-0.2924009874568018</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2722819324086705</v>
+      </c>
+      <c r="E71">
+        <v>-0.09746661937801457</v>
+      </c>
+      <c r="F71">
+        <v>0.008689425029122186</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1375305732239993</v>
+        <v>0.1426992290239779</v>
       </c>
       <c r="C72">
-        <v>-0.02636007105122225</v>
+        <v>0.02720082922492174</v>
       </c>
       <c r="D72">
-        <v>0.005622310111596781</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.003822270254775763</v>
+      </c>
+      <c r="E72">
+        <v>0.03652030111763219</v>
+      </c>
+      <c r="F72">
+        <v>0.03248047174645281</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2046610626188937</v>
+        <v>0.2040535969061564</v>
       </c>
       <c r="C73">
-        <v>-0.01433535395264886</v>
+        <v>0.01288970089432859</v>
       </c>
       <c r="D73">
-        <v>0.03078599189471082</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01677098270540238</v>
+      </c>
+      <c r="E73">
+        <v>0.06276273648954554</v>
+      </c>
+      <c r="F73">
+        <v>0.03774875117617774</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.0910983229635273</v>
+        <v>0.09465331276259466</v>
       </c>
       <c r="C74">
-        <v>-0.01281146657147588</v>
+        <v>0.01333579551495221</v>
       </c>
       <c r="D74">
-        <v>0.03107687578359838</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01700009175586334</v>
+      </c>
+      <c r="E74">
+        <v>0.04413408763231306</v>
+      </c>
+      <c r="F74">
+        <v>0.05819286450130967</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1347944125440222</v>
+        <v>0.1275301185609918</v>
       </c>
       <c r="C75">
-        <v>-0.02858358647355294</v>
+        <v>0.02827353370640064</v>
       </c>
       <c r="D75">
-        <v>0.04380144902555836</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03047259801974705</v>
+      </c>
+      <c r="E75">
+        <v>0.05805677126646689</v>
+      </c>
+      <c r="F75">
+        <v>0.02301381740768527</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07953272680831915</v>
+        <v>0.08885945438028581</v>
       </c>
       <c r="C77">
-        <v>-0.01673541671162436</v>
+        <v>0.008047780612200925</v>
       </c>
       <c r="D77">
-        <v>0.09502518840541763</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1124711788478033</v>
+      </c>
+      <c r="E77">
+        <v>0.0412986432493652</v>
+      </c>
+      <c r="F77">
+        <v>0.03467118291695331</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1046472413582329</v>
+        <v>0.1003042097448189</v>
       </c>
       <c r="C78">
-        <v>-0.04828379667150565</v>
+        <v>0.03933428692662207</v>
       </c>
       <c r="D78">
-        <v>0.09883051085443845</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.113541426530492</v>
+      </c>
+      <c r="E78">
+        <v>0.07428497717726273</v>
+      </c>
+      <c r="F78">
+        <v>0.05083317238864355</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1658342851104581</v>
+        <v>0.1635371259766449</v>
       </c>
       <c r="C79">
-        <v>-0.0227660486926886</v>
+        <v>0.0229711099707683</v>
       </c>
       <c r="D79">
-        <v>0.01828011472227846</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01481819359192977</v>
+      </c>
+      <c r="E79">
+        <v>0.04638070272870037</v>
+      </c>
+      <c r="F79">
+        <v>0.01254501849340085</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08890487059600857</v>
+        <v>0.08198632341309774</v>
       </c>
       <c r="C80">
-        <v>-0.002210756066868322</v>
+        <v>-0.001076378722887724</v>
       </c>
       <c r="D80">
-        <v>0.04898416012282481</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05721799763159333</v>
+      </c>
+      <c r="E80">
+        <v>0.03614515466649434</v>
+      </c>
+      <c r="F80">
+        <v>-0.02228622148821932</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1213956454472388</v>
+        <v>0.1187769130484525</v>
       </c>
       <c r="C81">
-        <v>-0.03036045375248082</v>
+        <v>0.03185643469192225</v>
       </c>
       <c r="D81">
-        <v>0.04540273232543177</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01579840346810853</v>
+      </c>
+      <c r="E81">
+        <v>0.05744766358426274</v>
+      </c>
+      <c r="F81">
+        <v>0.01877667411978611</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1621041298570029</v>
+        <v>0.1651264891595138</v>
       </c>
       <c r="C82">
-        <v>-0.02284576323677228</v>
+        <v>0.02485173495365741</v>
       </c>
       <c r="D82">
-        <v>0.02954146115664413</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.004280617708798063</v>
+      </c>
+      <c r="E82">
+        <v>0.02661382112040779</v>
+      </c>
+      <c r="F82">
+        <v>0.08200646806258212</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.0704529517366672</v>
+        <v>0.05852165951505078</v>
       </c>
       <c r="C83">
-        <v>-0.00661841626935411</v>
+        <v>0.002719262354294095</v>
       </c>
       <c r="D83">
-        <v>0.02908888537997982</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05078796096610867</v>
+      </c>
+      <c r="E83">
+        <v>0.002924631490360603</v>
+      </c>
+      <c r="F83">
+        <v>-0.02973179476763668</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06800593411817712</v>
+        <v>0.05948457501706277</v>
       </c>
       <c r="C84">
-        <v>-0.01565023837395498</v>
+        <v>0.01123664962207648</v>
       </c>
       <c r="D84">
-        <v>0.05594407257764532</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06306017091442408</v>
+      </c>
+      <c r="E84">
+        <v>0.007293724653064108</v>
+      </c>
+      <c r="F84">
+        <v>0.005664118275923507</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1387192510369409</v>
+        <v>0.1356244356683736</v>
       </c>
       <c r="C85">
-        <v>-0.02767580308262205</v>
+        <v>0.02826910563012859</v>
       </c>
       <c r="D85">
-        <v>0.02239489304215512</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009499635618504339</v>
+      </c>
+      <c r="E85">
+        <v>0.03647148835670009</v>
+      </c>
+      <c r="F85">
+        <v>0.04803439618289779</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1006150026284419</v>
+        <v>0.09443712695661827</v>
       </c>
       <c r="C86">
-        <v>0.001085543605404277</v>
+        <v>-0.005629740183286791</v>
       </c>
       <c r="D86">
-        <v>-0.03435948755068269</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04267572928060913</v>
+      </c>
+      <c r="E86">
+        <v>0.2292250775392014</v>
+      </c>
+      <c r="F86">
+        <v>-0.9032535818885088</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1000355940927945</v>
+        <v>0.09473107330266206</v>
       </c>
       <c r="C87">
-        <v>-0.03020472195529833</v>
+        <v>0.01925485816049597</v>
       </c>
       <c r="D87">
-        <v>0.05330820240164174</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09401188379339274</v>
+      </c>
+      <c r="E87">
+        <v>-0.05382119955296517</v>
+      </c>
+      <c r="F87">
+        <v>0.04544540955946523</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05899738653727533</v>
+        <v>0.0604650355576765</v>
       </c>
       <c r="C88">
-        <v>-0.006397269899182012</v>
+        <v>0.002094244959716501</v>
       </c>
       <c r="D88">
-        <v>0.04698661546213905</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04985239472073091</v>
+      </c>
+      <c r="E88">
+        <v>0.02433540774470618</v>
+      </c>
+      <c r="F88">
+        <v>0.01409955285038856</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1174604841720383</v>
+        <v>0.1294485998521328</v>
       </c>
       <c r="C89">
-        <v>0.002173153066452336</v>
+        <v>0.01363444576612585</v>
       </c>
       <c r="D89">
-        <v>-0.2771255695346075</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2456474598179502</v>
+      </c>
+      <c r="E89">
+        <v>-0.08906630851946203</v>
+      </c>
+      <c r="F89">
+        <v>-0.009301994378097809</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.130159037877956</v>
+        <v>0.1513900398345642</v>
       </c>
       <c r="C90">
-        <v>-0.01640671298849335</v>
+        <v>0.03434729488637598</v>
       </c>
       <c r="D90">
-        <v>-0.2925029909301504</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2711754924276254</v>
+      </c>
+      <c r="E90">
+        <v>-0.1141831632747826</v>
+      </c>
+      <c r="F90">
+        <v>-0.008062955989659797</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1206727244814438</v>
+        <v>0.1212564327171021</v>
       </c>
       <c r="C91">
-        <v>-0.01733148418957238</v>
+        <v>0.01995722207385127</v>
       </c>
       <c r="D91">
-        <v>0.003741526433814083</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01502422392007029</v>
+      </c>
+      <c r="E91">
+        <v>0.05600472571923424</v>
+      </c>
+      <c r="F91">
+        <v>2.085931717068388e-05</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1419784940020033</v>
+        <v>0.1478889229790619</v>
       </c>
       <c r="C92">
-        <v>-0.004589732227072257</v>
+        <v>0.02488905695607728</v>
       </c>
       <c r="D92">
-        <v>-0.3162508361778656</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2911173747679595</v>
+      </c>
+      <c r="E92">
+        <v>-0.101713154959845</v>
+      </c>
+      <c r="F92">
+        <v>-0.0126539492407844</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1357765875443697</v>
+        <v>0.151511864642053</v>
       </c>
       <c r="C93">
-        <v>-0.01169996922442292</v>
+        <v>0.02936094999137511</v>
       </c>
       <c r="D93">
-        <v>-0.2758670265995316</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2672983923684666</v>
+      </c>
+      <c r="E93">
+        <v>-0.07822412536646851</v>
+      </c>
+      <c r="F93">
+        <v>0.002598024460294546</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1349734117999465</v>
+        <v>0.1284731206515755</v>
       </c>
       <c r="C94">
-        <v>-0.02574186107102476</v>
+        <v>0.02467004399311171</v>
       </c>
       <c r="D94">
-        <v>0.06010692005302695</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04159365710066466</v>
+      </c>
+      <c r="E94">
+        <v>0.05741898358694266</v>
+      </c>
+      <c r="F94">
+        <v>0.03639380531902449</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1283457774190835</v>
+        <v>0.1267278011873528</v>
       </c>
       <c r="C95">
-        <v>-0.01143012510144892</v>
+        <v>0.003221774749016744</v>
       </c>
       <c r="D95">
-        <v>0.07073001516966138</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09466417492400427</v>
+      </c>
+      <c r="E95">
+        <v>0.04987642797703937</v>
+      </c>
+      <c r="F95">
+        <v>-0.007623188555040599</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1111368635027499</v>
+        <v>0.1093781151490184</v>
       </c>
       <c r="C96">
-        <v>0.9883367640171901</v>
+        <v>-0.9870543782177778</v>
       </c>
       <c r="D96">
-        <v>0.01293542251063847</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05193068351177738</v>
+      </c>
+      <c r="E96">
+        <v>0.0527416490261572</v>
+      </c>
+      <c r="F96">
+        <v>0.04278563681730217</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1917138783015929</v>
+        <v>0.1909034170035356</v>
       </c>
       <c r="C97">
-        <v>0.007777580195669369</v>
+        <v>-0.006962925327416066</v>
       </c>
       <c r="D97">
-        <v>-0.03533499654813014</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02009009855402835</v>
+      </c>
+      <c r="E97">
+        <v>0.02270280356666779</v>
+      </c>
+      <c r="F97">
+        <v>-0.09634341251323396</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1948351389101576</v>
+        <v>0.2060652303711787</v>
       </c>
       <c r="C98">
-        <v>-0.01049870551960357</v>
+        <v>0.007194065095194458</v>
       </c>
       <c r="D98">
-        <v>-0.002099651473649257</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01277845869972225</v>
+      </c>
+      <c r="E98">
+        <v>-0.07781365517975469</v>
+      </c>
+      <c r="F98">
+        <v>-0.09310231220706874</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.0543032363929704</v>
+        <v>0.05464597737740051</v>
       </c>
       <c r="C99">
-        <v>0.001885847704405586</v>
+        <v>-0.004564446424269365</v>
       </c>
       <c r="D99">
-        <v>0.02124050214595793</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03980332805248823</v>
+      </c>
+      <c r="E99">
+        <v>0.02208943309386755</v>
+      </c>
+      <c r="F99">
+        <v>0.0033353707838087</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1314992796787856</v>
+        <v>0.1280269590946393</v>
       </c>
       <c r="C100">
-        <v>0.02791344090737828</v>
+        <v>-0.05345913302869831</v>
       </c>
       <c r="D100">
-        <v>0.368616262241122</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3466998518063381</v>
+      </c>
+      <c r="E100">
+        <v>-0.8854689755656122</v>
+      </c>
+      <c r="F100">
+        <v>-0.1577185639741016</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02741621777692565</v>
+        <v>0.02851836797924834</v>
       </c>
       <c r="C101">
-        <v>-0.01013038854699126</v>
+        <v>0.008694411380915871</v>
       </c>
       <c r="D101">
-        <v>0.01863941996247561</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03078957143869445</v>
+      </c>
+      <c r="E101">
+        <v>0.01297013374940698</v>
+      </c>
+      <c r="F101">
+        <v>-0.01412654871072889</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
